--- a/заказы/филиалы и опт/2024/12,24/23,12,24 Ост СЫР филиалы/заказ СЫРЫ от 24,12,24 на 30,12,24.xlsx
+++ b/заказы/филиалы и опт/2024/12,24/23,12,24 Ост СЫР филиалы/заказ СЫРЫ от 24,12,24 на 30,12,24.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\23,12,24 Ост СЫР филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Останкино\ostankino_data\заказы\филиалы и опт\2024\12,24\23,12,24 Ост СЫР филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770D94D3-8383-4C81-B58E-3B8AC8CA064E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9A4B1B-7FF5-49A4-BECC-8C0010A379BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -772,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -1498,14 +1498,14 @@
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="11">
-        <f>D28/C28</f>
+        <f t="shared" ref="F28:F34" si="3">D28/C28</f>
         <v>67</v>
       </c>
       <c r="G28" s="2">
         <v>0.1</v>
       </c>
       <c r="H28" s="11">
-        <f>G28*D28</f>
+        <f t="shared" ref="H28:H34" si="4">G28*D28</f>
         <v>40.200000000000003</v>
       </c>
       <c r="I28" s="11"/>
@@ -1525,14 +1525,14 @@
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="11">
-        <f>D29/C29</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="G29" s="2">
         <v>0.1</v>
       </c>
       <c r="H29" s="11">
-        <f>G29*D29</f>
+        <f t="shared" si="4"/>
         <v>7.8000000000000007</v>
       </c>
       <c r="I29" s="11"/>
@@ -1550,14 +1550,14 @@
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="11">
-        <f>D30/C30</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G30" s="2">
         <v>0.1</v>
       </c>
       <c r="H30" s="11">
-        <f>G30*D30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I30" s="11"/>
@@ -1575,14 +1575,14 @@
       <c r="D31" s="14"/>
       <c r="E31" s="16"/>
       <c r="F31" s="11">
-        <f>D31/C31</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G31" s="2">
         <v>0.1</v>
       </c>
       <c r="H31" s="11">
-        <f>G31*D31</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I31" s="11"/>
@@ -1600,14 +1600,14 @@
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="11">
-        <f>D32/C32</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G32" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H32" s="11">
-        <f>G32*D32</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I32" s="11"/>
@@ -1627,14 +1627,14 @@
       </c>
       <c r="E33" s="16"/>
       <c r="F33" s="11">
-        <f>D33/C33</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G33" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H33" s="11">
-        <f>G33*D33</f>
+        <f t="shared" si="4"/>
         <v>17.920000000000002</v>
       </c>
       <c r="I33" s="11"/>
@@ -1652,14 +1652,14 @@
       <c r="D34" s="14"/>
       <c r="E34" s="16"/>
       <c r="F34" s="11">
-        <f>D34/C34</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G34" s="2">
         <v>0.18</v>
       </c>
       <c r="H34" s="11">
-        <f>G34*D34</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I34" s="11"/>
@@ -1686,7 +1686,7 @@
         <v>2.5</v>
       </c>
       <c r="H35" s="11">
-        <f t="shared" ref="H35:H37" si="3">E35</f>
+        <f t="shared" ref="H35:H37" si="5">E35</f>
         <v>0</v>
       </c>
       <c r="I35" s="18" t="s">
@@ -1713,7 +1713,7 @@
         <v>1.3</v>
       </c>
       <c r="H36" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I36" s="11" t="s">
@@ -1742,7 +1742,7 @@
         <v>3.2</v>
       </c>
       <c r="H37" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>313.5</v>
       </c>
       <c r="I37" s="11" t="s">
@@ -1762,14 +1762,14 @@
       <c r="D38" s="14"/>
       <c r="E38" s="16"/>
       <c r="F38" s="11">
-        <f>D38/C38</f>
+        <f t="shared" ref="F38:F44" si="6">D38/C38</f>
         <v>0</v>
       </c>
       <c r="G38" s="2">
         <v>0.4</v>
       </c>
       <c r="H38" s="11">
-        <f>G38*D38</f>
+        <f t="shared" ref="H38:H43" si="7">G38*D38</f>
         <v>0</v>
       </c>
       <c r="I38" s="11"/>
@@ -1787,14 +1787,14 @@
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
       <c r="F39" s="11">
-        <f>D39/C39</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G39" s="2">
         <v>0.4</v>
       </c>
       <c r="H39" s="11">
-        <f>G39*D39</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I39" s="11"/>
@@ -1814,14 +1814,14 @@
       </c>
       <c r="E40" s="16"/>
       <c r="F40" s="11">
-        <f>D40/C40</f>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="G40" s="2">
         <v>0.18</v>
       </c>
       <c r="H40" s="11">
-        <f>G40*D40</f>
+        <f t="shared" si="7"/>
         <v>60.48</v>
       </c>
       <c r="I40" s="11"/>
@@ -1839,14 +1839,14 @@
       <c r="D41" s="14"/>
       <c r="E41" s="16"/>
       <c r="F41" s="11">
-        <f>D41/C41</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G41" s="2">
         <v>0.18</v>
       </c>
       <c r="H41" s="11">
-        <f>G41*D41</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I41" s="11"/>
@@ -1864,14 +1864,14 @@
       <c r="D42" s="14"/>
       <c r="E42" s="16"/>
       <c r="F42" s="11">
-        <f>D42/C42</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G42" s="2">
         <v>0.18</v>
       </c>
       <c r="H42" s="11">
-        <f>G42*D42</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I42" s="11"/>
@@ -1891,14 +1891,14 @@
       </c>
       <c r="E43" s="16"/>
       <c r="F43" s="11">
-        <f>D43/C43</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="G43" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H43" s="11">
-        <f>G43*D43</f>
+        <f t="shared" si="7"/>
         <v>4.4800000000000004</v>
       </c>
       <c r="I43" s="11"/>
@@ -1916,7 +1916,7 @@
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
       <c r="F44" s="11">
-        <f>D44/C44</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G44" s="2">
@@ -1966,8 +1966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD90E25-9C35-46B4-B06E-E9A74D3DB08C}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -2688,14 +2688,14 @@
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="11">
-        <f>D28/C28</f>
+        <f t="shared" ref="F28:F34" si="3">D28/C28</f>
         <v>12</v>
       </c>
       <c r="G28" s="2">
         <v>0.1</v>
       </c>
       <c r="H28" s="11">
-        <f>G28*D28</f>
+        <f t="shared" ref="H28:H34" si="4">G28*D28</f>
         <v>7.2</v>
       </c>
       <c r="I28" s="11"/>
@@ -2713,14 +2713,14 @@
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="11">
-        <f>D29/C29</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G29" s="2">
         <v>0.1</v>
       </c>
       <c r="H29" s="11">
-        <f>G29*D29</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I29" s="11"/>
@@ -2738,14 +2738,14 @@
       <c r="D30" s="14"/>
       <c r="E30" s="16"/>
       <c r="F30" s="11">
-        <f>D30/C30</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G30" s="2">
         <v>0.1</v>
       </c>
       <c r="H30" s="11">
-        <f>G30*D30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I30" s="11"/>
@@ -2765,14 +2765,14 @@
       </c>
       <c r="E31" s="16"/>
       <c r="F31" s="11">
-        <f>D31/C31</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="G31" s="2">
         <v>0.1</v>
       </c>
       <c r="H31" s="11">
-        <f>G31*D31</f>
+        <f t="shared" si="4"/>
         <v>24.8</v>
       </c>
       <c r="I31" s="11"/>
@@ -2790,14 +2790,14 @@
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="11">
-        <f>D32/C32</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G32" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H32" s="11">
-        <f>G32*D32</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I32" s="11"/>
@@ -2815,14 +2815,14 @@
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="11">
-        <f>D33/C33</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G33" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H33" s="11">
-        <f>G33*D33</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I33" s="11"/>
@@ -2840,14 +2840,14 @@
       <c r="D34" s="14"/>
       <c r="E34" s="16"/>
       <c r="F34" s="11">
-        <f>D34/C34</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G34" s="2">
         <v>0.18</v>
       </c>
       <c r="H34" s="11">
-        <f>G34*D34</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I34" s="11"/>
@@ -2874,7 +2874,7 @@
         <v>2.5</v>
       </c>
       <c r="H35" s="11">
-        <f t="shared" ref="H35:H37" si="3">E35</f>
+        <f t="shared" ref="H35:H37" si="5">E35</f>
         <v>0</v>
       </c>
       <c r="I35" s="18" t="s">
@@ -2901,7 +2901,7 @@
         <v>1.3</v>
       </c>
       <c r="H36" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I36" s="11" t="s">
@@ -2928,7 +2928,7 @@
         <v>3.2</v>
       </c>
       <c r="H37" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I37" s="11" t="s">
@@ -2948,14 +2948,14 @@
       <c r="D38" s="14"/>
       <c r="E38" s="16"/>
       <c r="F38" s="11">
-        <f>D38/C38</f>
+        <f t="shared" ref="F38:F44" si="6">D38/C38</f>
         <v>0</v>
       </c>
       <c r="G38" s="2">
         <v>0.4</v>
       </c>
       <c r="H38" s="11">
-        <f>G38*D38</f>
+        <f t="shared" ref="H38:H43" si="7">G38*D38</f>
         <v>0</v>
       </c>
       <c r="I38" s="11"/>
@@ -2973,14 +2973,14 @@
       <c r="D39" s="14"/>
       <c r="E39" s="16"/>
       <c r="F39" s="11">
-        <f>D39/C39</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G39" s="2">
         <v>0.4</v>
       </c>
       <c r="H39" s="11">
-        <f>G39*D39</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I39" s="11"/>
@@ -2998,14 +2998,14 @@
       <c r="D40" s="14"/>
       <c r="E40" s="16"/>
       <c r="F40" s="11">
-        <f>D40/C40</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G40" s="2">
         <v>0.18</v>
       </c>
       <c r="H40" s="11">
-        <f>G40*D40</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I40" s="11"/>
@@ -3025,14 +3025,14 @@
       </c>
       <c r="E41" s="16"/>
       <c r="F41" s="11">
-        <f>D41/C41</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G41" s="2">
         <v>0.18</v>
       </c>
       <c r="H41" s="11">
-        <f>G41*D41</f>
+        <f t="shared" si="7"/>
         <v>2.88</v>
       </c>
       <c r="I41" s="11"/>
@@ -3052,14 +3052,14 @@
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="11">
-        <f>D42/C42</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="G42" s="2">
         <v>0.18</v>
       </c>
       <c r="H42" s="11">
-        <f>G42*D42</f>
+        <f t="shared" si="7"/>
         <v>11.52</v>
       </c>
       <c r="I42" s="11"/>
@@ -3079,14 +3079,14 @@
       </c>
       <c r="E43" s="16"/>
       <c r="F43" s="11">
-        <f>D43/C43</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G43" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H43" s="11">
-        <f>G43*D43</f>
+        <f t="shared" si="7"/>
         <v>2.2400000000000002</v>
       </c>
       <c r="I43" s="11"/>
@@ -3104,7 +3104,7 @@
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
       <c r="F44" s="11">
-        <f>D44/C44</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G44" s="2">
@@ -3143,7 +3143,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A24" sqref="A24:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -3856,14 +3856,14 @@
       <c r="D28" s="14"/>
       <c r="E28" s="16"/>
       <c r="F28" s="11">
-        <f>D28/C28</f>
+        <f t="shared" ref="F28:F34" si="3">D28/C28</f>
         <v>0</v>
       </c>
       <c r="G28" s="2">
         <v>0.1</v>
       </c>
       <c r="H28" s="11">
-        <f>G28*D28</f>
+        <f t="shared" ref="H28:H34" si="4">G28*D28</f>
         <v>0</v>
       </c>
       <c r="I28" s="11"/>
@@ -3883,14 +3883,14 @@
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="11">
-        <f>D29/C29</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="G29" s="2">
         <v>0.1</v>
       </c>
       <c r="H29" s="11">
-        <f>G29*D29</f>
+        <f t="shared" si="4"/>
         <v>7.8000000000000007</v>
       </c>
       <c r="I29" s="11"/>
@@ -3910,14 +3910,14 @@
       </c>
       <c r="E30" s="16"/>
       <c r="F30" s="11">
-        <f>D30/C30</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="G30" s="2">
         <v>0.1</v>
       </c>
       <c r="H30" s="11">
-        <f>G30*D30</f>
+        <f t="shared" si="4"/>
         <v>28.8</v>
       </c>
       <c r="I30" s="11"/>
@@ -3935,14 +3935,14 @@
       <c r="D31" s="14"/>
       <c r="E31" s="16"/>
       <c r="F31" s="11">
-        <f>D31/C31</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G31" s="2">
         <v>0.1</v>
       </c>
       <c r="H31" s="11">
-        <f>G31*D31</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I31" s="11"/>
@@ -3960,14 +3960,14 @@
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="11">
-        <f>D32/C32</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G32" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H32" s="11">
-        <f>G32*D32</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I32" s="11"/>
@@ -3985,14 +3985,14 @@
       <c r="D33" s="14"/>
       <c r="E33" s="16"/>
       <c r="F33" s="11">
-        <f>D33/C33</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G33" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H33" s="11">
-        <f>G33*D33</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I33" s="11"/>
@@ -4010,14 +4010,14 @@
       <c r="D34" s="14"/>
       <c r="E34" s="16"/>
       <c r="F34" s="11">
-        <f>D34/C34</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G34" s="2">
         <v>0.18</v>
       </c>
       <c r="H34" s="11">
-        <f>G34*D34</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I34" s="11"/>
@@ -4044,7 +4044,7 @@
         <v>2.5</v>
       </c>
       <c r="H35" s="11">
-        <f t="shared" ref="H35:H37" si="3">E35</f>
+        <f t="shared" ref="H35:H37" si="5">E35</f>
         <v>0</v>
       </c>
       <c r="I35" s="18" t="s">
@@ -4071,7 +4071,7 @@
         <v>1.3</v>
       </c>
       <c r="H36" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I36" s="11" t="s">
@@ -4100,7 +4100,7 @@
         <v>3.2</v>
       </c>
       <c r="H37" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.5</v>
       </c>
       <c r="I37" s="11" t="s">
@@ -4120,14 +4120,14 @@
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
       <c r="F38" s="11">
-        <f>D38/C38</f>
+        <f t="shared" ref="F38:F44" si="6">D38/C38</f>
         <v>0</v>
       </c>
       <c r="G38" s="2">
         <v>0.4</v>
       </c>
       <c r="H38" s="11">
-        <f>G38*D38</f>
+        <f t="shared" ref="H38:H43" si="7">G38*D38</f>
         <v>0</v>
       </c>
       <c r="I38" s="11"/>
@@ -4145,14 +4145,14 @@
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
       <c r="F39" s="11">
-        <f>D39/C39</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G39" s="2">
         <v>0.4</v>
       </c>
       <c r="H39" s="11">
-        <f>G39*D39</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I39" s="11"/>
@@ -4172,14 +4172,14 @@
       </c>
       <c r="E40" s="16"/>
       <c r="F40" s="11">
-        <f>D40/C40</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="G40" s="2">
         <v>0.18</v>
       </c>
       <c r="H40" s="11">
-        <f>G40*D40</f>
+        <f t="shared" si="7"/>
         <v>8.64</v>
       </c>
       <c r="I40" s="11"/>
@@ -4199,14 +4199,14 @@
       </c>
       <c r="E41" s="16"/>
       <c r="F41" s="11">
-        <f>D41/C41</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G41" s="2">
         <v>0.18</v>
       </c>
       <c r="H41" s="11">
-        <f>G41*D41</f>
+        <f t="shared" si="7"/>
         <v>2.88</v>
       </c>
       <c r="I41" s="11"/>
@@ -4226,14 +4226,14 @@
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="11">
-        <f>D42/C42</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="G42" s="2">
         <v>0.18</v>
       </c>
       <c r="H42" s="11">
-        <f>G42*D42</f>
+        <f t="shared" si="7"/>
         <v>5.76</v>
       </c>
       <c r="I42" s="11"/>
@@ -4253,14 +4253,14 @@
       </c>
       <c r="E43" s="16"/>
       <c r="F43" s="11">
-        <f>D43/C43</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="G43" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H43" s="11">
-        <f>G43*D43</f>
+        <f t="shared" si="7"/>
         <v>6.7200000000000006</v>
       </c>
       <c r="I43" s="11"/>
@@ -4278,7 +4278,7 @@
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
       <c r="F44" s="11">
-        <f>D44/C44</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G44" s="2">
